--- a/src/test/java/excel/testData.xlsx
+++ b/src/test/java/excel/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
